--- a/テスト仕様書/演習3.xlsx
+++ b/テスト仕様書/演習3.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>演習3　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -391,25 +392,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「赤、青、白、黄」が表示される</t>
-    <rPh sb="1" eb="2">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>正常にラベルが動作するか</t>
     <rPh sb="0" eb="2">
       <t>セイジョウ</t>
@@ -430,6 +412,414 @@
     <t>「Man」が選択されていること</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS clothes CASCADE;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE clothes(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id serial primary key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    category text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    genre text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gender integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    color text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    size text</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','パンツ　　',0,'白',20000,'M');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','Ｔシャツ　',1,'青',5000,'M');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','帽子　　　',1,'白',10000,'S');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'黄',15000,'L');</t>
+  </si>
+  <si>
+    <t>テストケース番号</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力内容</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期待される結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>衣類検索デシジョンテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>「Man」を選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Woman」を選択</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「赤」を選択</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「青」を選択</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ジャンル：ジャケット
+サイズ：S
+価格：10,000」が表示される</t>
+    <rPh sb="18" eb="20">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Man」が選択さている</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Woman」が選択さている</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>衣類を検索する</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常に衣類が検索されるか</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンでーぶる」のTC1を入力し、「検索」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンテーブル」のTC1の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンでーぶる」のTC2を入力し、「検索」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンテーブル」のTC2の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ジャンル：Tシャツ
+サイズ：M
+価格：5,000」が表示される</t>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当なし</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンでーぶる」のTC3を入力し、「検索」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「衣類デシジョンテーブル」のTC3の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した内容が保持されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Man」、「青」を選択し「検索」をクリックする</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Man」、「青」が選択されていること</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「赤、青、白、黄」が表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数検索のパターンも作ると良い</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -438,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,8 +860,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +877,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,10 +921,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D19"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
@@ -812,27 +1244,28 @@
     <col min="4" max="4" width="19.36328125" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="11" max="11" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="26">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -874,7 +1307,7 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -882,42 +1315,72 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="5"/>
+      <c r="K5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="5"/>
+      <c r="K6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+      <c r="K7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -930,7 +1393,7 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -938,42 +1401,79 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="5"/>
+      <c r="K8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="5"/>
+      <c r="K9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+      <c r="K10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="5"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -986,7 +1486,7 @@
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -994,42 +1494,81 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="5"/>
+      <c r="K12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="5"/>
+      <c r="K13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="5"/>
+      <c r="K14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="5"/>
+      <c r="K15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1037,55 +1576,79 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="5"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="5"/>
+      <c r="K18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="5"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1098,57 +1661,383 @@
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="5"/>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I23" s="5"/>
+      <c r="K23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
+  <mergeCells count="90">
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
@@ -1157,41 +2046,104 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>